--- a/Biplot/QPB_cosumers_iso_signature.xlsx
+++ b/Biplot/QPB_cosumers_iso_signature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/LTER/Manuscript 2019 Stable Isotopes/SIA_Plots 2017-2019/Biplot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/45- Gutiérrez-F et al. Ecology/SIA_Plots/Biplot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{9A6817A5-BC58-4FF4-AD46-C6F9A3AF18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DAFE54-4C95-4439-8D2C-392D0465611C}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:1_{9A6817A5-BC58-4FF4-AD46-C6F9A3AF18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A81E2DE-9F55-4A6B-B14D-5B6109073D5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7EDBA850-C453-4A51-B25A-72C217F3ADC7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7EDBA850-C453-4A51-B25A-72C217F3ADC7}"/>
   </bookViews>
   <sheets>
     <sheet name="QPB_Feb17" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>M. crenulatum</t>
   </si>
   <si>
-    <t>A. evermani</t>
-  </si>
-  <si>
     <t>L. regnyi</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Genera</t>
+  </si>
+  <si>
+    <t>A. evermanni</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,19 +480,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="28" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="30" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907787B0-4773-48BB-8EB3-BE6C4440572B}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,19 +1185,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H42">
         <v>10</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H43">
         <v>10</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H44">
         <v>10</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H45">
         <v>10</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1">
         <v>11</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1">
         <v>11</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1">
         <v>11</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1">
         <v>11</v>
@@ -2132,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3F2802-7021-47DA-B187-B83EA00F2DAB}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="31" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1">
         <v>11</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1">
         <v>11</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1">
         <v>11</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1">
         <v>11</v>
@@ -2941,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9F4D0-2EDE-48D2-A64E-69664D9712F0}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2959,19 +2959,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="32" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1">
         <v>11</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1">
         <v>11</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1">
         <v>11</v>
